--- a/csv/aspirants_count.xlsx
+++ b/csv/aspirants_count.xlsx
@@ -443,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -471,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
